--- a/data/trans_dic/P78C5_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P78C5_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>56,41%</t>
+          <t>52,24%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>75,02%</t>
+          <t>70,87%</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>76,99%</t>
+          <t>75,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>86,42%</t>
+          <t>85,04%</t>
         </is>
       </c>
     </row>
@@ -639,14 +639,14 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>42,85; 100,0</t>
+          <t>43,11; 100,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>53,36%</t>
+          <t>53,52%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>65,09%</t>
+          <t>63,43%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>61,16%</t>
+          <t>59,95%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 97,03</t>
+          <t>0,0; 96,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,13; 89,48</t>
+          <t>30,35; 88,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>35,27; 83,22</t>
+          <t>34,6; 83,11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>88,19%</t>
+          <t>88,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>61,99%</t>
+          <t>60,85%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>75,12%</t>
+          <t>74,78%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>47,51; 100,0</t>
+          <t>47,46; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,93; 84,65</t>
+          <t>32,73; 84,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>50,13; 88,56</t>
+          <t>50,41; 88,83</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>77,79%</t>
+          <t>77,12%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>89,65%</t>
+          <t>89,41%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>81,26%</t>
+          <t>80,72%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>51,25; 93,34</t>
+          <t>50,08; 92,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>49,46; 100,0</t>
+          <t>48,66; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>57,76; 94,07</t>
+          <t>56,64; 93,93</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>86,96%</t>
+          <t>72,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>96,36%</t>
+          <t>94,65%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>86,55%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>56,18; 100,0</t>
+          <t>19,96; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>77,05; 100,0</t>
+          <t>75,77; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>78,04; 97,95</t>
+          <t>66,65; 96,6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>80,36%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>77,94%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>79,19%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>65,4; 90,24</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>64,93; 87,83</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>69,08; 85,96</t>
+          <t>84,31; 100</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>79,57%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>76,67%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>78,18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>64,12; 89,82</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>63,31; 86,97</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>67,57; 85,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
